--- a/Case41/module2.xlsx
+++ b/Case41/module2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekosolapova/work/bugs/TestCasesEPBDS-8483/Case4/Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekosolapova/work/bugs/TestCasesEPBDS-8483/Case4/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6A715F-CA56-274D-9C84-EA1EAAA828AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59599BBD-4B64-FF41-A9B9-0DCBB0E78453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{88427358-2AD6-1D47-9421-4BB416460FE1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t>itemType</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>SPPJewelry1</t>
   </si>
   <si>
     <r>
@@ -321,7 +324,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +364,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +460,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -508,6 +517,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,12 +530,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -543,6 +552,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -896,106 +911,106 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="22">
+      <c r="A3" s="24">
         <v>44134</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="25">
         <v>333</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1010,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C361C38A-3C3D-504F-94F5-7C7BC217C9D2}">
-  <dimension ref="C2:N82"/>
+  <dimension ref="C2:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -1034,7 +1049,7 @@
     </row>
     <row r="3" spans="3:14">
       <c r="C3" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -1175,22 +1190,22 @@
         <v>9</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G9" s="8">
-        <v>15000</v>
-      </c>
-      <c r="H9" s="8">
-        <v>25000</v>
-      </c>
-      <c r="I9" s="8">
-        <v>30000</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="F9" s="23">
+        <v>10000</v>
+      </c>
+      <c r="G9" s="23">
+        <v>15000</v>
+      </c>
+      <c r="H9" s="23">
+        <v>25000</v>
+      </c>
+      <c r="I9" s="23">
+        <v>30000</v>
+      </c>
+      <c r="J9" s="23">
         <v>40000</v>
       </c>
       <c r="K9" s="9"/>
@@ -1201,22 +1216,22 @@
     <row r="10" spans="3:14">
       <c r="C10" s="27"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G10" s="8">
-        <v>15000</v>
-      </c>
-      <c r="H10" s="8">
-        <v>25000</v>
-      </c>
-      <c r="I10" s="8">
-        <v>30000</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="F10" s="23">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="23">
+        <v>15000</v>
+      </c>
+      <c r="H10" s="23">
+        <v>25000</v>
+      </c>
+      <c r="I10" s="23">
+        <v>30000</v>
+      </c>
+      <c r="J10" s="23">
         <v>40000</v>
       </c>
       <c r="K10" s="9"/>
@@ -1227,22 +1242,22 @@
     <row r="11" spans="3:14">
       <c r="C11" s="27"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G11" s="8">
-        <v>15000</v>
-      </c>
-      <c r="H11" s="8">
-        <v>25000</v>
-      </c>
-      <c r="I11" s="8">
-        <v>30000</v>
-      </c>
-      <c r="J11" s="8"/>
+      <c r="F11" s="23">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="23">
+        <v>15000</v>
+      </c>
+      <c r="H11" s="23">
+        <v>25000</v>
+      </c>
+      <c r="I11" s="23">
+        <v>30000</v>
+      </c>
+      <c r="J11" s="23"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -1251,20 +1266,20 @@
     <row r="12" spans="3:14">
       <c r="C12" s="27"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G12" s="8">
-        <v>15000</v>
-      </c>
-      <c r="H12" s="8">
-        <v>25000</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="F12" s="23">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="23">
+        <v>15000</v>
+      </c>
+      <c r="H12" s="23">
+        <v>25000</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -2288,10 +2303,18 @@
       <c r="I53" s="8">
         <v>4</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
+      <c r="J53" s="8">
+        <v>7</v>
+      </c>
+      <c r="K53" s="9">
+        <v>8</v>
+      </c>
+      <c r="L53" s="9">
+        <v>9</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
       <c r="N53" s="9"/>
     </row>
     <row r="54" spans="3:14" ht="42">
@@ -2938,7 +2961,7 @@
     </row>
     <row r="79" spans="3:14">
       <c r="C79" s="27"/>
-      <c r="D79" s="25" t="s">
+      <c r="D79" s="34" t="s">
         <v>28</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -2966,7 +2989,7 @@
     </row>
     <row r="80" spans="3:14">
       <c r="C80" s="27"/>
-      <c r="D80" s="25"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="7" t="s">
         <v>6</v>
       </c>
@@ -2992,7 +3015,7 @@
     </row>
     <row r="81" spans="3:14">
       <c r="C81" s="27"/>
-      <c r="D81" s="25"/>
+      <c r="D81" s="34"/>
       <c r="E81" s="7" t="s">
         <v>7</v>
       </c>
@@ -3018,7 +3041,7 @@
     </row>
     <row r="82" spans="3:14">
       <c r="C82" s="28"/>
-      <c r="D82" s="26"/>
+      <c r="D82" s="35"/>
       <c r="E82" s="15" t="s">
         <v>8</v>
       </c>
@@ -3042,8 +3065,119 @@
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
     </row>
+    <row r="83" spans="3:14">
+      <c r="C83" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="12">
+        <v>30000</v>
+      </c>
+      <c r="G83" s="12">
+        <v>100000</v>
+      </c>
+      <c r="H83" s="12">
+        <v>200000</v>
+      </c>
+      <c r="I83" s="12">
+        <v>400000</v>
+      </c>
+      <c r="J83" s="12"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="3:14">
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="12">
+        <v>30000</v>
+      </c>
+      <c r="G84" s="12">
+        <v>100000</v>
+      </c>
+      <c r="H84" s="12">
+        <v>200000</v>
+      </c>
+      <c r="I84" s="12">
+        <v>400000</v>
+      </c>
+      <c r="J84" s="12"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+    </row>
+    <row r="85" spans="3:14">
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="12">
+        <v>30000</v>
+      </c>
+      <c r="G85" s="12">
+        <v>100000</v>
+      </c>
+      <c r="H85" s="12">
+        <v>200000</v>
+      </c>
+      <c r="I85" s="12">
+        <v>400000</v>
+      </c>
+      <c r="J85" s="12"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="3:14">
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="12">
+        <v>30000</v>
+      </c>
+      <c r="G86" s="12">
+        <v>100000</v>
+      </c>
+      <c r="H86" s="12">
+        <v>200000</v>
+      </c>
+      <c r="I86" s="12">
+        <v>400000</v>
+      </c>
+      <c r="J86" s="12"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="D83:D86"/>
     <mergeCell ref="C53:C82"/>
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="F4:N4"/>
@@ -3058,15 +3192,6 @@
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="C37:C40"/>
     <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="D75:D78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Case41/module2.xlsx
+++ b/Case41/module2.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekosolapova/work/bugs/TestCasesEPBDS-8483/Case4/Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekosolapova/work/bugs/TestCasesEPBDS-8483/Case4/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6A715F-CA56-274D-9C84-EA1EAAA828AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F7D370-1286-594B-A568-5DF5BC7EEEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{88427358-2AD6-1D47-9421-4BB416460FE1}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangesHistory" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Deductible">#REF!</definedName>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
   <si>
     <t>itemType</t>
   </si>
@@ -183,6 +182,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Added for Elena Test</t>
   </si>
   <si>
     <r>
@@ -451,7 +453,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -508,6 +510,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,32 +528,32 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -866,10 +877,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13"/>
@@ -896,106 +907,114 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="22">
+      <c r="A3" s="25">
         <v>44134</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="26">
         <v>333</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="22"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="22"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="22"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="22"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="22"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="22"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="22"/>
+      <c r="B15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1013,7 +1032,7 @@
   <dimension ref="C2:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1033,20 +1052,20 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="3:14">
-      <c r="C3" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="3:14">
       <c r="C4" s="3" t="s">
@@ -1058,23 +1077,23 @@
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="3:14">
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1099,8 +1118,8 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="3:14">
-      <c r="C6" s="27"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1125,8 +1144,8 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="3:14">
-      <c r="C7" s="27"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1149,8 +1168,8 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="3:14">
-      <c r="C8" s="27"/>
-      <c r="D8" s="33"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1171,10 +1190,10 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="3:14">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="7" t="s">
         <v>5</v>
       </c>
@@ -1199,8 +1218,8 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="3:14">
-      <c r="C10" s="27"/>
-      <c r="D10" s="33"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1225,8 +1244,8 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="3:14">
-      <c r="C11" s="27"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="7" t="s">
         <v>7</v>
       </c>
@@ -1249,8 +1268,8 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="3:14">
-      <c r="C12" s="27"/>
-      <c r="D12" s="33"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="7" t="s">
         <v>8</v>
       </c>
@@ -1271,10 +1290,10 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="3:14">
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1299,8 +1318,8 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="3:14">
-      <c r="C14" s="27"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="7" t="s">
         <v>6</v>
       </c>
@@ -1325,8 +1344,8 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="3:14">
-      <c r="C15" s="27"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="7" t="s">
         <v>7</v>
       </c>
@@ -1349,8 +1368,8 @@
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="3:14">
-      <c r="C16" s="27"/>
-      <c r="D16" s="33"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="7" t="s">
         <v>8</v>
       </c>
@@ -1371,10 +1390,10 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="33"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="7" t="s">
         <v>5</v>
       </c>
@@ -1399,8 +1418,8 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="27"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1425,8 +1444,8 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="27"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1449,8 +1468,8 @@
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="27"/>
-      <c r="D20" s="33"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1471,10 +1490,10 @@
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="33"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="7" t="s">
         <v>5</v>
       </c>
@@ -1499,8 +1518,8 @@
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="27"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="7" t="s">
         <v>6</v>
       </c>
@@ -1525,8 +1544,8 @@
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="27"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="7" t="s">
         <v>7</v>
       </c>
@@ -1549,8 +1568,8 @@
       <c r="N23" s="9"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="27"/>
-      <c r="D24" s="33"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="7" t="s">
         <v>8</v>
       </c>
@@ -1571,10 +1590,10 @@
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="33"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1599,8 +1618,8 @@
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="3:14">
-      <c r="C26" s="27"/>
-      <c r="D26" s="33"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1625,8 +1644,8 @@
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="3:14">
-      <c r="C27" s="27"/>
-      <c r="D27" s="33"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="7" t="s">
         <v>7</v>
       </c>
@@ -1649,8 +1668,8 @@
       <c r="N27" s="9"/>
     </row>
     <row r="28" spans="3:14">
-      <c r="C28" s="27"/>
-      <c r="D28" s="33"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="7" t="s">
         <v>8</v>
       </c>
@@ -1671,10 +1690,10 @@
       <c r="N28" s="9"/>
     </row>
     <row r="29" spans="3:14">
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="33"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="7" t="s">
         <v>5</v>
       </c>
@@ -1699,8 +1718,8 @@
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="3:14">
-      <c r="C30" s="27"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="7" t="s">
         <v>6</v>
       </c>
@@ -1725,8 +1744,8 @@
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="3:14">
-      <c r="C31" s="27"/>
-      <c r="D31" s="33"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="7" t="s">
         <v>7</v>
       </c>
@@ -1749,8 +1768,8 @@
       <c r="N31" s="9"/>
     </row>
     <row r="32" spans="3:14">
-      <c r="C32" s="27"/>
-      <c r="D32" s="33"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="7" t="s">
         <v>8</v>
       </c>
@@ -1771,10 +1790,10 @@
       <c r="N32" s="9"/>
     </row>
     <row r="33" spans="3:14">
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="33"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1799,8 +1818,8 @@
       <c r="N33" s="9"/>
     </row>
     <row r="34" spans="3:14">
-      <c r="C34" s="27"/>
-      <c r="D34" s="33"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="7" t="s">
         <v>6</v>
       </c>
@@ -1825,8 +1844,8 @@
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="3:14">
-      <c r="C35" s="27"/>
-      <c r="D35" s="33"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="7" t="s">
         <v>7</v>
       </c>
@@ -1849,8 +1868,8 @@
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="3:14">
-      <c r="C36" s="27"/>
-      <c r="D36" s="33"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="7" t="s">
         <v>8</v>
       </c>
@@ -1871,10 +1890,10 @@
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="3:14">
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="33"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="7" t="s">
         <v>5</v>
       </c>
@@ -1899,8 +1918,8 @@
       <c r="N37" s="9"/>
     </row>
     <row r="38" spans="3:14">
-      <c r="C38" s="27"/>
-      <c r="D38" s="33"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="7" t="s">
         <v>6</v>
       </c>
@@ -1925,8 +1944,8 @@
       <c r="N38" s="9"/>
     </row>
     <row r="39" spans="3:14">
-      <c r="C39" s="27"/>
-      <c r="D39" s="33"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="7" t="s">
         <v>7</v>
       </c>
@@ -1949,8 +1968,8 @@
       <c r="N39" s="9"/>
     </row>
     <row r="40" spans="3:14">
-      <c r="C40" s="27"/>
-      <c r="D40" s="33"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="7" t="s">
         <v>8</v>
       </c>
@@ -1971,10 +1990,10 @@
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="3:14">
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="33"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="7" t="s">
         <v>5</v>
       </c>
@@ -1999,8 +2018,8 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="3:14">
-      <c r="C42" s="27"/>
-      <c r="D42" s="33"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="7" t="s">
         <v>6</v>
       </c>
@@ -2025,8 +2044,8 @@
       <c r="N42" s="9"/>
     </row>
     <row r="43" spans="3:14">
-      <c r="C43" s="27"/>
-      <c r="D43" s="33"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="7" t="s">
         <v>7</v>
       </c>
@@ -2049,8 +2068,8 @@
       <c r="N43" s="9"/>
     </row>
     <row r="44" spans="3:14">
-      <c r="C44" s="27"/>
-      <c r="D44" s="33"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="7" t="s">
         <v>8</v>
       </c>
@@ -2071,10 +2090,10 @@
       <c r="N44" s="9"/>
     </row>
     <row r="45" spans="3:14">
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="33"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="7" t="s">
         <v>5</v>
       </c>
@@ -2099,8 +2118,8 @@
       <c r="N45" s="9"/>
     </row>
     <row r="46" spans="3:14">
-      <c r="C46" s="27"/>
-      <c r="D46" s="33"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="7" t="s">
         <v>6</v>
       </c>
@@ -2125,8 +2144,8 @@
       <c r="N46" s="9"/>
     </row>
     <row r="47" spans="3:14">
-      <c r="C47" s="27"/>
-      <c r="D47" s="33"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="7" t="s">
         <v>7</v>
       </c>
@@ -2149,8 +2168,8 @@
       <c r="N47" s="9"/>
     </row>
     <row r="48" spans="3:14">
-      <c r="C48" s="27"/>
-      <c r="D48" s="33"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="7" t="s">
         <v>8</v>
       </c>
@@ -2171,10 +2190,10 @@
       <c r="N48" s="9"/>
     </row>
     <row r="49" spans="3:14">
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="33"/>
+      <c r="D49" s="34"/>
       <c r="E49" s="7" t="s">
         <v>5</v>
       </c>
@@ -2199,8 +2218,8 @@
       <c r="N49" s="9"/>
     </row>
     <row r="50" spans="3:14">
-      <c r="C50" s="27"/>
-      <c r="D50" s="33"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="7" t="s">
         <v>6</v>
       </c>
@@ -2225,8 +2244,8 @@
       <c r="N50" s="9"/>
     </row>
     <row r="51" spans="3:14">
-      <c r="C51" s="27"/>
-      <c r="D51" s="33"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="7" t="s">
         <v>7</v>
       </c>
@@ -2249,8 +2268,8 @@
       <c r="N51" s="9"/>
     </row>
     <row r="52" spans="3:14">
-      <c r="C52" s="27"/>
-      <c r="D52" s="33"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="7" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2290,7 @@
       <c r="N52" s="9"/>
     </row>
     <row r="53" spans="3:14" ht="42">
-      <c r="C53" s="27"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="10" t="s">
         <v>20</v>
       </c>
@@ -2295,7 +2314,7 @@
       <c r="N53" s="9"/>
     </row>
     <row r="54" spans="3:14" ht="42">
-      <c r="C54" s="27"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="10" t="s">
         <v>21</v>
       </c>
@@ -2317,8 +2336,8 @@
       <c r="N54" s="9"/>
     </row>
     <row r="55" spans="3:14">
-      <c r="C55" s="27"/>
-      <c r="D55" s="27" t="s">
+      <c r="C55" s="28"/>
+      <c r="D55" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -2345,8 +2364,8 @@
       <c r="N55" s="9"/>
     </row>
     <row r="56" spans="3:14">
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="7" t="s">
         <v>6</v>
       </c>
@@ -2371,8 +2390,8 @@
       <c r="N56" s="9"/>
     </row>
     <row r="57" spans="3:14">
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="7" t="s">
         <v>7</v>
       </c>
@@ -2397,8 +2416,8 @@
       <c r="N57" s="9"/>
     </row>
     <row r="58" spans="3:14">
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="7" t="s">
         <v>8</v>
       </c>
@@ -2423,8 +2442,8 @@
       <c r="N58" s="9"/>
     </row>
     <row r="59" spans="3:14">
-      <c r="C59" s="27"/>
-      <c r="D59" s="27" t="s">
+      <c r="C59" s="28"/>
+      <c r="D59" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -2459,8 +2478,8 @@
       </c>
     </row>
     <row r="60" spans="3:14">
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="7" t="s">
         <v>6</v>
       </c>
@@ -2493,8 +2512,8 @@
       </c>
     </row>
     <row r="61" spans="3:14">
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
       <c r="E61" s="7" t="s">
         <v>7</v>
       </c>
@@ -2527,8 +2546,8 @@
       </c>
     </row>
     <row r="62" spans="3:14">
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="7" t="s">
         <v>8</v>
       </c>
@@ -2561,8 +2580,8 @@
       </c>
     </row>
     <row r="63" spans="3:14">
-      <c r="C63" s="27"/>
-      <c r="D63" s="27" t="s">
+      <c r="C63" s="28"/>
+      <c r="D63" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -2587,8 +2606,8 @@
       <c r="N63" s="9"/>
     </row>
     <row r="64" spans="3:14">
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="7" t="s">
         <v>6</v>
       </c>
@@ -2611,8 +2630,8 @@
       <c r="N64" s="9"/>
     </row>
     <row r="65" spans="3:14">
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="7" t="s">
         <v>7</v>
       </c>
@@ -2635,8 +2654,8 @@
       <c r="N65" s="9"/>
     </row>
     <row r="66" spans="3:14">
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="7" t="s">
         <v>8</v>
       </c>
@@ -2659,8 +2678,8 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="3:14">
-      <c r="C67" s="27"/>
-      <c r="D67" s="27" t="s">
+      <c r="C67" s="28"/>
+      <c r="D67" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="7" t="s">
@@ -2683,8 +2702,8 @@
       <c r="N67" s="9"/>
     </row>
     <row r="68" spans="3:14">
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="7" t="s">
         <v>6</v>
       </c>
@@ -2705,8 +2724,8 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="3:14">
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="7" t="s">
         <v>7</v>
       </c>
@@ -2727,8 +2746,8 @@
       <c r="N69" s="9"/>
     </row>
     <row r="70" spans="3:14">
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="7" t="s">
         <v>8</v>
       </c>
@@ -2749,8 +2768,8 @@
       <c r="N70" s="9"/>
     </row>
     <row r="71" spans="3:14">
-      <c r="C71" s="27"/>
-      <c r="D71" s="27" t="s">
+      <c r="C71" s="28"/>
+      <c r="D71" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -2775,8 +2794,8 @@
       <c r="N71" s="9"/>
     </row>
     <row r="72" spans="3:14">
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="7" t="s">
         <v>6</v>
       </c>
@@ -2799,8 +2818,8 @@
       <c r="N72" s="9"/>
     </row>
     <row r="73" spans="3:14">
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="7" t="s">
         <v>7</v>
       </c>
@@ -2823,8 +2842,8 @@
       <c r="N73" s="9"/>
     </row>
     <row r="74" spans="3:14">
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
       <c r="E74" s="7" t="s">
         <v>8</v>
       </c>
@@ -2847,8 +2866,8 @@
       <c r="N74" s="9"/>
     </row>
     <row r="75" spans="3:14">
-      <c r="C75" s="27"/>
-      <c r="D75" s="27" t="s">
+      <c r="C75" s="28"/>
+      <c r="D75" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -2873,8 +2892,8 @@
       <c r="N75" s="9"/>
     </row>
     <row r="76" spans="3:14">
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
       <c r="E76" s="7" t="s">
         <v>6</v>
       </c>
@@ -2893,8 +2912,8 @@
       <c r="N76" s="9"/>
     </row>
     <row r="77" spans="3:14">
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
       <c r="E77" s="7" t="s">
         <v>7</v>
       </c>
@@ -2915,8 +2934,8 @@
       <c r="N77" s="9"/>
     </row>
     <row r="78" spans="3:14">
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
       <c r="E78" s="7" t="s">
         <v>8</v>
       </c>
@@ -2937,8 +2956,8 @@
       <c r="N78" s="9"/>
     </row>
     <row r="79" spans="3:14">
-      <c r="C79" s="27"/>
-      <c r="D79" s="25" t="s">
+      <c r="C79" s="28"/>
+      <c r="D79" s="35" t="s">
         <v>28</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -2965,8 +2984,8 @@
       <c r="N79" s="9"/>
     </row>
     <row r="80" spans="3:14">
-      <c r="C80" s="27"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="35"/>
       <c r="E80" s="7" t="s">
         <v>6</v>
       </c>
@@ -2991,8 +3010,8 @@
       <c r="N80" s="9"/>
     </row>
     <row r="81" spans="3:14">
-      <c r="C81" s="27"/>
-      <c r="D81" s="25"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="35"/>
       <c r="E81" s="7" t="s">
         <v>7</v>
       </c>
@@ -3017,8 +3036,8 @@
       <c r="N81" s="9"/>
     </row>
     <row r="82" spans="3:14">
-      <c r="C82" s="28"/>
-      <c r="D82" s="26"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="36"/>
       <c r="E82" s="15" t="s">
         <v>8</v>
       </c>
@@ -3044,6 +3063,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="D75:D78"/>
     <mergeCell ref="C53:C82"/>
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="F4:N4"/>
@@ -3060,26 +3086,7 @@
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="C45:C48"/>
     <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="D75:D78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0271A90-58BD-7242-B0F6-720A89AE6F8B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>